--- a/Import/Medicals/insurance_template.xlsx
+++ b/Import/Medicals/insurance_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Medicals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BE8811-B664-423A-8BED-2F34DE218709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62180D2D-B071-42D1-A747-B035681DAE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -93,19 +93,16 @@
     <t>BPJS Ketenagakerjaan</t>
   </si>
   <si>
-    <t>BPJS-K</t>
-  </si>
-  <si>
     <t>Negeri</t>
   </si>
   <si>
-    <t>BPJS-T</t>
-  </si>
-  <si>
     <t>BPJS TK</t>
   </si>
   <si>
     <t>BPJS-TK</t>
+  </si>
+  <si>
+    <t>BPJS-KS</t>
   </si>
 </sst>
 </file>
@@ -158,14 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,7 +183,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G6" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G5" headerRowCount="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Code"/>
@@ -499,19 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -529,7 +524,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -552,7 +547,7 @@
       <c r="D2" s="2">
         <v>100000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" s="2">
@@ -575,7 +570,7 @@
       <c r="D3" s="2">
         <v>120000</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>12</v>
       </c>
       <c r="F3" s="2">
@@ -590,15 +585,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>50000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>5</v>
       </c>
       <c r="F4" s="2">
@@ -616,42 +611,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>60000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>6</v>
       </c>
       <c r="F5" s="2">
         <v>90000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <v>55000</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>80000</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
